--- a/biology/Botanique/Amaryllidaceae/Amaryllidaceae.xlsx
+++ b/biology/Botanique/Amaryllidaceae/Amaryllidaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amaryllidacées, Amarylladacées, Amaryllidées
 Les Amaryllidaceae, en français Amaryllidacées, sont une famille de plantes monocotylédones appartenant à l'ordre des Asparagales.  Cette famille compte plus de 800 espèces réparties en une soixantaine de genres, dont plusieurs sont cultivées pour leur intérêt ornemental, tels que les Narcisses (Narcissus) ou les Amaryllis (genres Amaryllis et Hippeastrum).
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Amaryllis du grec Ἀμαρυλλίς signifiant "brillante", qui est le nom d'un personnage des Bucoliques de Virgile (70-19 av. J.-C.) et des Idylles de Théocrite (315-250 av. J.-C.)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Amaryllis du grec Ἀμαρυλλίς signifiant "brillante", qui est le nom d'un personnage des Bucoliques de Virgile (70-19 av. J.-C.) et des Idylles de Théocrite (315-250 av. J.-C.).
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes herbacées, essentiellement bulbeuses, pérennes, à feuilles caduques, à ovaire infère, des régions tempérées à tropicales.
 Les alcaloïdes isoquinoléiques sont caractéristiques de la famille[réf. nécessaire].
@@ -584,12 +600,49 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification phylogénétique APG II (2003)[2], cette famille est optionnelle : ces plantes peuvent aussi être incluses dans les Alliacées.
-La classification phylogénétique APG III (2009)[3] inclut dans cette famille les genres précédemment placés dans les familles Agapanthaceae, Alliaceae, notamment les genres Agapanthus et Galanthus.
-Liste des genres
-Selon Angiosperm Phylogeny Website                        (16 mars 2013)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification phylogénétique APG II (2003), cette famille est optionnelle : ces plantes peuvent aussi être incluses dans les Alliacées.
+La classification phylogénétique APG III (2009) inclut dans cette famille les genres précédemment placés dans les familles Agapanthaceae, Alliaceae, notamment les genres Agapanthus et Galanthus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Amaryllidaceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amaryllidaceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (16 mars 2013) :
 Allium L.
 ×Amarcrinum Coutts
 ×Amarine Sealy
@@ -661,7 +714,7 @@
 Urceolina Rchb.
 Vagaria Herb.
 Zephyranthes Herb.
-Selon DELTA Angio           (16 mars 2013)[5] :
+Selon DELTA Angio           (16 mars 2013) :
 Amaryllis
 Ammocharis
 Apodolirion
@@ -728,7 +781,7 @@
 Vallota
 Worsleya
 Zephyranthes
-Selon Tropicos                                           (16 mars 2013)[6] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (16 mars 2013) (Attention liste brute contenant possiblement des synonymes) :
 Abaphus Raf.
 Abapus Adans.
 Acis Salisb.
